--- a/notebooks/GNAO1/input/GNAO1_DEE17_individuals.xlsx
+++ b/notebooks/GNAO1/input/GNAO1_DEE17_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/GNAO1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7231D370-F088-4F4F-B262-9877A861EE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F743C653-A3FE-B549-9DB6-F42D2B37385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22980" yWindow="5260" windowWidth="27640" windowHeight="16940" xr2:uid="{8322400D-F12C-3A46-B70B-E427A119B6C4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{8322400D-F12C-3A46-B70B-E427A119B6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>PMID</t>
   </si>
@@ -183,13 +183,31 @@
   </si>
   <si>
     <t>HP:0002305</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>GNAO1</t>
+  </si>
+  <si>
+    <t>HGNC:4389</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +226,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,10 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2211FAA5-4531-054C-9F26-4EEB725083DD}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,52 +628,58 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -649,16 +688,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -667,40 +706,46 @@
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -717,40 +762,40 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
       </c>
       <c r="S3" t="s">
         <v>41</v>
@@ -758,8 +803,14 @@
       <c r="T3" t="s">
         <v>41</v>
       </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -776,45 +827,51 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>41</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>41</v>
       </c>
     </row>
